--- a/biology/Zoologie/Cysticercoïde/Cysticercoïde.xlsx
+++ b/biology/Zoologie/Cysticercoïde/Cysticercoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cysticerco%C3%AFde</t>
+          <t>Cysticercoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un Cysticercoïde (nom masculin), ou larve cysticercoïde (ici adjectif), désigne une forme larvaire de certaines cestodes. Ces larves demeurent charnues sans vésicule (ou celle-ci est rudimentaire sans liquide[1]) et contiennent un scolex invaginé comme Hymenolepis diminuta ou Rodentolepis nana[2]. On parle d'ailleurs de ténias non vésiculaires. Le terme est attribué à Rudolf Leuckart. Les cysticercoïdes ne développent leur cycle que s'ils sont ingérés par des invertébrés, surtout des insectes ou des acariens[3], qui sont donc les hôtes intermédiaires[4].
-Il ne faut pas confondre avec le cysticerque qui est la forme larvaire et vésiculée d'autres ténias[4], qui eux trouvent leur hôte intermédiaire chez les vertébrés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un Cysticercoïde (nom masculin), ou larve cysticercoïde (ici adjectif), désigne une forme larvaire de certaines cestodes. Ces larves demeurent charnues sans vésicule (ou celle-ci est rudimentaire sans liquide) et contiennent un scolex invaginé comme Hymenolepis diminuta ou Rodentolepis nana. On parle d'ailleurs de ténias non vésiculaires. Le terme est attribué à Rudolf Leuckart. Les cysticercoïdes ne développent leur cycle que s'ils sont ingérés par des invertébrés, surtout des insectes ou des acariens, qui sont donc les hôtes intermédiaires.
+Il ne faut pas confondre avec le cysticerque qui est la forme larvaire et vésiculée d'autres ténias, qui eux trouvent leur hôte intermédiaire chez les vertébrés.
 </t>
         </is>
       </c>
